--- a/Effetto Zeeman/results_Zeeman/spacing and fwhm.xlsx
+++ b/Effetto Zeeman/results_Zeeman/spacing and fwhm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\LAB2020\spectroscopy-lab\Effetto Zeeman\results_Zeeman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7FA64-B8A5-4582-BC11-3D1CB4ACA68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DFEC63-1E70-40F4-ABD4-C735E311C4AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{6378BB59-7003-4B81-9ADB-09B391575FBC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{6378BB59-7003-4B81-9ADB-09B391575FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>x</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>err fwhm</t>
+  </si>
+  <si>
+    <t>media totale</t>
+  </si>
+  <si>
+    <t>media fwhm</t>
+  </si>
+  <si>
+    <t>devstd</t>
+  </si>
+  <si>
+    <t>err perc</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>delta lambda</t>
+  </si>
+  <si>
+    <t>err c</t>
+  </si>
+  <si>
+    <t>err delta l</t>
+  </si>
+  <si>
+    <t>errore</t>
   </si>
 </sst>
 </file>
@@ -434,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8CB6CB-6185-4946-AAD5-EC31FA4EDA0E}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,20 +485,20 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>3584.1215999999999</v>
       </c>
@@ -481,20 +511,29 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>3584.1215999999999</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>100.90170000000001</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.50119999999999998</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.9849</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>3963.9713999999999</v>
       </c>
@@ -509,20 +548,35 @@
         <f>SQRT(C2^2+C3^2)</f>
         <v>0.6411251671865642</v>
       </c>
-      <c r="F3">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
         <v>3963.9713999999999</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>76.860799999999998</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.39979999999999999</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.76329999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M3">
+        <f>AVERAGE(I2:I18)</f>
+        <v>58.666488235294125</v>
+      </c>
+      <c r="N3">
+        <f>_xlfn.STDEV.S(I2:I18)/SQRT(17)</f>
+        <v>4.5497453709931586</v>
+      </c>
+      <c r="O3">
+        <f>N3/M3*100</f>
+        <v>7.7552713786880512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4304.9258</v>
       </c>
@@ -534,23 +588,31 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="1">SQRT(C3^2+C4^2)</f>
+        <f t="shared" ref="D4:D17" si="1">SQRT(C3^2+C4^2)</f>
         <v>0.51776542951417681</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <f>AVERAGE(B3:B4)</f>
+        <v>360.40210000000002</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(E4:E18)</f>
+        <v>232.5865</v>
+      </c>
+      <c r="H4">
         <v>4304.9258</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>80.537499999999994</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4606.6377000000002</v>
       </c>
@@ -565,20 +627,28 @@
         <f t="shared" si="1"/>
         <v>0.46555919065141438</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <f t="shared" ref="E5:E17" si="2">AVERAGE(B4:B5)</f>
+        <v>321.33315000000016</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.STDEV.S(E4:E18)</f>
+        <v>57.036635218261821</v>
+      </c>
+      <c r="H5">
         <v>4606.6377000000002</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>86.017399999999995</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.32940000000000003</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.79020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4885.9741000000004</v>
       </c>
@@ -593,20 +663,33 @@
         <f t="shared" si="1"/>
         <v>0.44012494816813102</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>290.52415000000019</v>
+      </c>
+      <c r="H6">
         <v>4885.9741000000004</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>65.004300000000001</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.29189999999999999</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.6583</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5145.5380999999998</v>
       </c>
@@ -621,20 +704,35 @@
         <f t="shared" si="1"/>
         <v>0.40199822138910019</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>269.45019999999977</v>
+      </c>
+      <c r="H7">
         <v>5145.5380999999998</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>65.9512</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.27639999999999998</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.68410000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7">
+        <f>M3*0.00022</f>
+        <v>1.2906627411764708E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O7">
+        <f>SQRT((M3*N7)^2+(N3*0.00022)^2)</f>
+        <v>1.1602002148441777E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5391.0874000000003</v>
       </c>
@@ -649,20 +747,37 @@
         <f t="shared" si="1"/>
         <v>0.3831201508665395</v>
       </c>
-      <c r="F8">
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>252.55664999999999</v>
+      </c>
+      <c r="H8">
         <v>5391.0874000000003</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>51.419699999999999</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.26529999999999998</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.65129999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <f>O9/N9*100</f>
+        <v>8.9891818972524664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>5625.6986999999999</v>
       </c>
@@ -677,20 +792,36 @@
         <f t="shared" si="1"/>
         <v>0.38010121020591348</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>240.08030000000008</v>
+      </c>
+      <c r="H9">
         <v>5625.6986999999999</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>61.846899999999998</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.2722</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.66010000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9">
+        <f>585.3/M7</f>
+        <v>45348.794950606898</v>
+      </c>
+      <c r="N9">
+        <f>M9/1000</f>
+        <v>45.348794950606901</v>
+      </c>
+      <c r="O9">
+        <f>585.3/(M7^2)*O7/1000</f>
+        <v>4.0764856663220961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5848.25</v>
       </c>
@@ -705,20 +836,24 @@
         <f t="shared" si="1"/>
         <v>0.36528591541421357</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>228.58129999999983</v>
+      </c>
+      <c r="H10">
         <v>5848.25</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>56.969900000000003</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.24360000000000001</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.61580000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>6060.3823000000002</v>
       </c>
@@ -733,20 +868,24 @@
         <f t="shared" si="1"/>
         <v>0.34436103147714026</v>
       </c>
-      <c r="F11">
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>217.34180000000015</v>
+      </c>
+      <c r="H11">
         <v>6060.3823000000002</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>52.146900000000002</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.24340000000000001</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.62239999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>6264.6377000000002</v>
       </c>
@@ -761,20 +900,24 @@
         <f t="shared" si="1"/>
         <v>0.36731943863618216</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>208.19385000000011</v>
+      </c>
+      <c r="H12">
         <v>6264.6377000000002</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>47.692799999999998</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.27510000000000001</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.77529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6460.4252999999999</v>
       </c>
@@ -789,20 +932,24 @@
         <f t="shared" si="1"/>
         <v>0.34816600925420621</v>
       </c>
-      <c r="F13">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>200.02149999999983</v>
+      </c>
+      <c r="H13">
         <v>6460.4252999999999</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>49.2898</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.21340000000000001</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.50349999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>6651.5981000000002</v>
       </c>
@@ -817,20 +964,24 @@
         <f t="shared" si="1"/>
         <v>0.33458758195725075</v>
       </c>
-      <c r="F14">
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>193.48019999999997</v>
+      </c>
+      <c r="H14">
         <v>6651.5981000000002</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>46.711500000000001</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.25769999999999998</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.68530000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>6834.4359999999997</v>
       </c>
@@ -845,20 +996,24 @@
         <f t="shared" si="1"/>
         <v>0.40520436818968275</v>
       </c>
-      <c r="F15">
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>187.00534999999991</v>
+      </c>
+      <c r="H15">
         <v>6834.4359999999997</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>46.514499999999998</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.31269999999999998</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.9778</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>7012.3594000000003</v>
       </c>
@@ -873,20 +1028,24 @@
         <f t="shared" si="1"/>
         <v>0.40060136045700095</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>180.38065000000006</v>
+      </c>
+      <c r="H16">
         <v>7012.3594000000003</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>40.08</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.25040000000000001</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.75829999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>7180.3793999999998</v>
       </c>
@@ -901,20 +1060,24 @@
         <f t="shared" si="1"/>
         <v>0.39184450997812897</v>
       </c>
-      <c r="F17">
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>172.97170000000006</v>
+      </c>
+      <c r="H17">
         <v>7180.3793999999998</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>41.550600000000003</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.3014</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.71840000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>7345.3086000000003</v>
       </c>
@@ -929,73 +1092,77 @@
         <f>SQRT(C17^2+C18^2)</f>
         <v>0.40126546076132691</v>
       </c>
-      <c r="F18">
+      <c r="E18">
+        <f>AVERAGE(B17:B18)</f>
+        <v>166.47460000000001</v>
+      </c>
+      <c r="H18">
         <v>7345.3086000000003</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>27.834800000000001</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.26490000000000002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>0.39340000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>9</v>
       </c>
